--- a/Avance de ejecución (1).xlsx
+++ b/Avance de ejecución (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B63732C-4608-4431-8FAE-C70E7759DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85C697-CF33-4801-8C88-312DA4D81307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 " sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Incidencias</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Menor</t>
-  </si>
-  <si>
-    <t>Fecha</t>
   </si>
   <si>
     <t>Avance de ejecución de casos de prueba</t>
@@ -102,9 +99,6 @@
     <t>VUCEPERPAM-230 Agregar efecto personal de la lista de efectos</t>
   </si>
   <si>
-    <t>14/11/2024</t>
-  </si>
-  <si>
     <t>VUCEPERPAM-237 Eliminar efecto personal de la lista de efectos de la Tripulación</t>
   </si>
   <si>
@@ -122,18 +116,6 @@
     <t>MR 2 - INCIDENCIAS</t>
   </si>
   <si>
-    <t>12/11/2024 - 13/11/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/11/2024 - 12/11/2024 </t>
-  </si>
-  <si>
-    <t>1/11/2024 - 6/11/2024</t>
-  </si>
-  <si>
-    <t>6/11/2024 - 8/11/2024</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -164,16 +146,49 @@
     <t>VUCEPERPAM-807 Detalle de la Lista de Narcóticos</t>
   </si>
   <si>
-    <t>19/11/2024 - 20/11/2024</t>
-  </si>
-  <si>
-    <t>15/11/2024 - 18/11/2024</t>
-  </si>
-  <si>
     <t>VUCEPERPAM-1506 Cambio de Inspector en Ficha de Inspección Sanitaria_v2.0</t>
   </si>
   <si>
     <t>-Retest</t>
+  </si>
+  <si>
+    <t>PASARELLA / RNF</t>
+  </si>
+  <si>
+    <t>RNF-006 - Porcentaje de peticiones procesadas sin fallos durante 60 segundos</t>
+  </si>
+  <si>
+    <t>RNF-009 - Usuarios concurrentes (monitoreado en un intervalo de 40 segundos)</t>
+  </si>
+  <si>
+    <t>RNF-010 - Tiempo máximo de ejecución de una transacción desde recibida la petición en el cliente</t>
+  </si>
+  <si>
+    <t>RNF-013 - Tiempo de respuesta para consulta que devuelve un registro</t>
+  </si>
+  <si>
+    <t>PASARELLA / PPS</t>
+  </si>
+  <si>
+    <t>RNF-006, RNF009, RNF010, RNF013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de Analisis + 'Re-test y preparacion de data </t>
+  </si>
+  <si>
+    <t>CP / Subsanacion Incidencias</t>
+  </si>
+  <si>
+    <t>VUCEPERPAM-258 Detalle de la Lista de Tripulantes</t>
+  </si>
+  <si>
+    <t>VUCEPERPAM-259 Agregar personas a la Lista de Tripulantes</t>
+  </si>
+  <si>
+    <t>7 Cerrados</t>
+  </si>
+  <si>
+    <t>2 Cerrados , 2 Devueltos</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -530,44 +545,147 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,9 +694,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -638,24 +753,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -695,12 +801,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,15 +813,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,364 +1202,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.875" customWidth="1"/>
-    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.875" customWidth="1"/>
+    <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="C4" s="2"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="312" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="312" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="F7" s="20">
+        <v>14</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="185.25" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18">
-        <v>20</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="C8" s="21">
         <v>10</v>
       </c>
-      <c r="F7" s="20">
+      <c r="D8" s="22">
         <v>2</v>
-      </c>
-      <c r="G7" s="21">
-        <v>14</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="185.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="22">
-        <v>10</v>
       </c>
       <c r="E8" s="23">
         <v>2</v>
       </c>
       <c r="F8" s="24">
-        <v>2</v>
-      </c>
-      <c r="G8" s="25">
         <v>7</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="G8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>13</v>
+      <c r="C9" s="21">
+        <v>0</v>
       </c>
       <c r="D9" s="22">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23">
         <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>17</v>
       </c>
       <c r="F9" s="24">
         <v>0</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5">
+      <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21">
         <v>0</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.5">
-      <c r="A10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="22">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>10</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
       </c>
       <c r="D11" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="23">
         <v>5</v>
       </c>
       <c r="F11" s="24">
-        <v>5</v>
-      </c>
-      <c r="G11" s="25">
         <v>0</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>32</v>
+      <c r="G11" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="21">
+        <v>10</v>
       </c>
       <c r="D12" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F12" s="24">
-        <v>7</v>
-      </c>
-      <c r="G12" s="25">
         <v>6</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="G12" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25">
+      <c r="F13" s="24">
         <v>7</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25">
+      <c r="F14" s="24">
         <v>1</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5">
+      <c r="A16" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5">
+      <c r="A17" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49">
+        <v>7</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="46">
+        <v>23</v>
+      </c>
+      <c r="D18" s="47">
+        <v>20</v>
+      </c>
+      <c r="E18" s="48">
+        <v>6</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
-      <c r="A15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37">
+      <c r="C19" s="46">
+        <v>4</v>
+      </c>
+      <c r="D19" s="47">
+        <v>2</v>
+      </c>
+      <c r="E19" s="48">
+        <v>2</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="46">
         <v>3</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" thickBot="1">
-      <c r="B16"/>
-      <c r="D16" s="51">
-        <f>SUM(D7:D15)</f>
-        <v>43</v>
-      </c>
-      <c r="E16" s="52">
-        <f>SUM(E7:E15)</f>
-        <v>55</v>
-      </c>
-      <c r="F16" s="53">
-        <f>SUM(F7:F15)</f>
-        <v>16</v>
-      </c>
-      <c r="G16" s="53">
-        <f>SUM(G7:G15)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27"/>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
+      <c r="E20" s="48">
+        <v>2</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5">
+      <c r="A21" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="46">
+        <v>3</v>
+      </c>
+      <c r="D21" s="47">
+        <v>3</v>
+      </c>
+      <c r="E21" s="48">
+        <v>2</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1">
+      <c r="A22" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="30">
+        <v>4</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" thickBot="1">
+      <c r="A23"/>
+      <c r="C23" s="52">
+        <f>SUM(C7:C22)</f>
+        <v>80</v>
+      </c>
+      <c r="D23" s="53">
+        <f>SUM(D7:D22)</f>
+        <v>85</v>
+      </c>
+      <c r="E23" s="54">
+        <f>SUM(E7:E22)</f>
+        <v>30</v>
+      </c>
+      <c r="F23" s="54">
+        <f>SUM(F7:F22)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:F5"/>
+  <mergeCells count="6">
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
